--- a/test/反洗钱界面问题列表20170908.xlsx
+++ b/test/反洗钱界面问题列表20170908.xlsx
@@ -14,16 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>评级流程图需要美化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于菜单的命名需要规范化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于金融机构和人民银行的权限需要分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件时和查看附件时不能刷新界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>所有的修改，新增界面，第一列右对齐，第二列左对齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -36,19 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传附件时和查看附件时不能刷新界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级流程图需要美化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于菜单的命名需要规范化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于金融机构和人民银行的权限需要分开</t>
+    <t>所有的标签不能用button的样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +501,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -488,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -496,68 +528,88 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
